--- a/Zzs/Assets/Excel/User.xlsx
+++ b/Zzs/Assets/Excel/User.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -119,6 +119,36 @@
   <si>
     <t>阿阳健身</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祉毅</t>
+  </si>
+  <si>
+    <t>小王超勇</t>
+  </si>
+  <si>
+    <t>耿立进</t>
+  </si>
+  <si>
+    <t>Arai</t>
+  </si>
+  <si>
+    <t>梁家榕</t>
+  </si>
+  <si>
+    <t>A梁某</t>
+  </si>
+  <si>
+    <t>赵泮迪</t>
+  </si>
+  <si>
+    <t>阿诺补剂仓</t>
+  </si>
+  <si>
+    <t>金冬博</t>
+  </si>
+  <si>
+    <t>legend</t>
   </si>
 </sst>
 </file>
@@ -511,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -545,7 +575,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -562,7 +592,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -579,7 +609,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -592,6 +622,91 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>18595307009</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13304848644</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18587567601</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>15066172195</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>18345166339</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
